--- a/templates/rate_sheet_template.xlsx
+++ b/templates/rate_sheet_template.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/code/cost_control/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D24787D-681E-0641-B23E-449AC03DA498}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AF01777-8D2F-3E44-AEFC-68E5F6FEE18F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="1440" windowWidth="27640" windowHeight="16940" xr2:uid="{6DE067EA-3563-2647-BD3B-E49AEA0BEF2F}"/>
+    <workbookView xWindow="3080" yWindow="2520" windowWidth="27640" windowHeight="16940" xr2:uid="{6DE067EA-3563-2647-BD3B-E49AEA0BEF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Rates" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Rates!$A$1:$C$41</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
-  <si>
-    <t>Personnel and Labor Rates - Owens Lake Dust Mitigation Project</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Company: Air Sciences</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>&lt;----- date changes on this sheet will go into effect</t>
+  </si>
+  <si>
+    <t>Personnel and Labor Rates</t>
+  </si>
+  <si>
+    <t>Owens Lake Dust Mitigation Project</t>
   </si>
 </sst>
 </file>
@@ -70,7 +76,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -97,6 +103,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -195,14 +208,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -229,27 +236,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -272,15 +269,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>306734</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>93718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1504882</xdr:colOff>
+      <xdr:colOff>1587499</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>95663</xdr:rowOff>
+      <xdr:rowOff>167378</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -295,8 +292,62 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="-13973" b="12118"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="306734" y="93718"/>
+          <a:ext cx="1280765" cy="822960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>145185</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AFC0025-A294-124D-94B4-7C69513CA290}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -309,12 +360,17 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304800" y="177800"/>
-          <a:ext cx="1200082" cy="654463"/>
+          <a:off x="304800" y="927100"/>
+          <a:ext cx="1282700" cy="830985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -619,286 +675,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2974004-A659-744F-BA62-696AABE65A5F}">
-  <dimension ref="A2:G39"/>
+  <dimension ref="A2:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" ht="19" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" ht="19" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C10" s="11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="14">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C11" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="12">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="13"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="13"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="13"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="13"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/rate_sheet_template.xlsx
+++ b/templates/rate_sheet_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/code/cost_control/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AF01777-8D2F-3E44-AEFC-68E5F6FEE18F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D417109C-3989-BD4A-AF40-75E221162D3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="2520" windowWidth="27640" windowHeight="16940" xr2:uid="{6DE067EA-3563-2647-BD3B-E49AEA0BEF2F}"/>
   </bookViews>
@@ -60,13 +60,13 @@
     <t>Frank Hardy</t>
   </si>
   <si>
-    <t>&lt;----- date changes on this sheet will go into effect</t>
-  </si>
-  <si>
     <t>Personnel and Labor Rates</t>
   </si>
   <si>
     <t>Owens Lake Dust Mitigation Project</t>
+  </si>
+  <si>
+    <t>&lt;----- date changes on this sheet will go into effect (must be in mm/dd/yy format)</t>
   </si>
 </sst>
 </file>
@@ -678,7 +678,7 @@
   <dimension ref="A2:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -691,12 +691,12 @@
   <sheetData>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -709,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
